--- a/random_sample.xlsx
+++ b/random_sample.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
   <si>
     <t>cluster</t>
   </si>
@@ -22,25 +22,31 @@
     <t>Title</t>
   </si>
   <si>
-    <t>A competency framework to assess and activate education for sustainable development: Addressing the UN sustainable development goals 4.7 challenge</t>
-  </si>
-  <si>
-    <t>Assessing the sense of initiative and entrepreneurship in vocational students using the European qualification framework</t>
+    <t>A systematic review of the use of Agile methodologies in education to foster sustainability competencies</t>
+  </si>
+  <si>
+    <t>Assessing sustainability education in a transdisciplinary undergraduate course focused on real-world problem solving: A case for disciplinary grounding</t>
+  </si>
+  <si>
+    <t>Audit workplace simulations as a methodology to increase undergraduates’ awareness of competences</t>
   </si>
   <si>
     <t>Building key competencies into an environmental education curriculum using a modified Delphi approach in South Korea</t>
   </si>
   <si>
-    <t>Coaching to prepare students for their school-to-work transition: conceptualizing core coaching competences</t>
-  </si>
-  <si>
-    <t>Comparing faculty perceptions of sustainability teaching at two US universities</t>
-  </si>
-  <si>
-    <t>Competency development in business graduates: An industry-driven approach for examining the alignment of undergraduate business education with industry requirements</t>
-  </si>
-  <si>
-    <t>Competency-oriented education for sustainable development: Lessons from five courses on energy poverty</t>
+    <t>Competence literate but context lacking? Investigating the potential of study abroad programs to promote sustainability competence acquisition in students</t>
+  </si>
+  <si>
+    <t>Competence-based approaches in organizational and individual context</t>
+  </si>
+  <si>
+    <t>Competence-based education and training: Progress or villainy?</t>
+  </si>
+  <si>
+    <t>Competencies for Advancing Transformations Towards Sustainability</t>
+  </si>
+  <si>
+    <t>Computer-based assessment in safety-critical industries: The case of shipping</t>
   </si>
   <si>
     <t>Creativity for sustainability: How do polish teachers develop students’ creativity competence? analysis of research results</t>
@@ -49,31 +55,7 @@
     <t>Developing key competencies in sustainability through project-based learning in graduate sustainability programs</t>
   </si>
   <si>
-    <t>Devising a competence-based training program for educators of sustainable development: Lessons learned</t>
-  </si>
-  <si>
-    <t>Education for sustainable development: The impact of the values in mobile phone addiction</t>
-  </si>
-  <si>
-    <t>Embracing conflicts for interpersonal competence development in project-based sustainability courses</t>
-  </si>
-  <si>
-    <t>Evaluating assessment quality in competence-based education: A qualitative comparison of two frameworks</t>
-  </si>
-  <si>
-    <t>Evaluation of competence-based teaching in higher education: From theory to practice</t>
-  </si>
-  <si>
-    <t>FEW and Far Between: Rebalancing Research and Training Priorities at the Food-Energy-Water Nexus</t>
-  </si>
-  <si>
-    <t>Fostering Sustainability through Mobility Knowledge, Skills, and Attitudes</t>
-  </si>
-  <si>
-    <t>Fostering organizational sustainability through dialogical interaction</t>
-  </si>
-  <si>
-    <t>Future Shocks and City Resilience: Building Organizational Capacity for Resilience and Sustainability through Game Play and Ways of Thinking</t>
+    <t>Facilitating transformation and competence development in sustainable agriculture university education: An experiential and action oriented approach</t>
   </si>
   <si>
     <t>Generic versus specific competencies of entry-level public health graduates: Employers' perceptions in Poland, the UK, and the Netherlands</t>
@@ -82,52 +64,43 @@
     <t>How secondary-school students deal with issues of sustainable development in class *</t>
   </si>
   <si>
-    <t>Integrating education for sustainable development competencies in teacher education</t>
-  </si>
-  <si>
-    <t>Integrating environmental sustainability issues into the curriculum through problem-based and project-based learning: A case study at the University of Cape Town</t>
-  </si>
-  <si>
-    <t>Integrating sustainability in higher planning education through international cooperation: Assessment of a pedagogical model and learning outcomes from the students’ perspective</t>
-  </si>
-  <si>
     <t>Key competences, education for sustainable development and strategies for the development of 21st century skills. A systematic literature review</t>
   </si>
   <si>
-    <t>Key competencies for education in a European context: Narratives of accountability or care</t>
-  </si>
-  <si>
-    <t>Key competencies for sustainability in university of iceland curriculum</t>
-  </si>
-  <si>
-    <t>Learning to collaborate from diverse interactions in project-based sustainability courses</t>
-  </si>
-  <si>
-    <t>Pedagogies of preparedness: Use of reflective journals in the operationalisation and development of anticipatory competence</t>
+    <t>Key competencies for design in a circular economy: Exploring gaps in design knowledge and skills for a circular economy</t>
+  </si>
+  <si>
+    <t>Learning for a sustainable economy: Teaching of green competencies in the university</t>
+  </si>
+  <si>
+    <t>Practice-based program evaluation in higher education for sustainability: A student participatory approach</t>
   </si>
   <si>
     <t>Real-world learning opportunities in sustainability: from classroom into the real world</t>
   </si>
   <si>
-    <t>Reflective practice in times of COVID‐19: A tool to improve education for sustainable development in pre‐service teacher training</t>
+    <t>Recognising and measuring competency in natural hazard preparation: A preparedness competency index</t>
+  </si>
+  <si>
+    <t>Remodelling urban planning education for sustainable development: the case of Serbia</t>
   </si>
   <si>
     <t>Self-evaluation of assessment programs: A cross-case analysis</t>
   </si>
   <si>
-    <t>Students' decision-making in education for sustainability-related extracurricular activities-a systematic review of empirical studies</t>
-  </si>
-  <si>
-    <t>Students’ learning sustainability – implicit, explicit or non-existent: a case study approach on students’ key competencies addressing the SDGs in HEI program</t>
-  </si>
-  <si>
-    <t>Sustainability inclusion in informatics curriculum development</t>
+    <t>Social and solidarity economy, sustainable development goals, and community development: The mission of adult education &amp; training</t>
   </si>
   <si>
     <t>Sustainable Development in Education from Students’ Perspective—Implementation of Sustainable Development in Curricula</t>
   </si>
   <si>
-    <t>Teaching foresight and futures literacy and its integration into university curriculum</t>
+    <t>Systems thinking within the scope of education for sustainable development (ESD)–a heuristic competence model as a basis for (science) teacher education</t>
+  </si>
+  <si>
+    <t>The change towards a teaching methodology based on competences: A case study in a Spanish university</t>
+  </si>
+  <si>
+    <t>The explication of quality standards in self-evaluation</t>
   </si>
   <si>
     <t>The new competence concept in higher education: Error or enrichment?</t>
@@ -136,58 +109,67 @@
     <t>Tilting at Windmills: The problems of challenging the National Council for Vocational Qualifications</t>
   </si>
   <si>
-    <t>Transactional learning and sustainability co-creation in a university – business collaboration</t>
-  </si>
-  <si>
-    <t>Using conjoint analysis to estimate employers preferences for key competencies of master level Dutch graduates entering the public health field</t>
-  </si>
-  <si>
     <t>Validation of the chefs’ key competencies questionnaire: A culinary student perspective</t>
   </si>
   <si>
-    <t>Variation in sustainability competency development according to age, gender, and disciplinary affiliation: Implications for teaching practice and overall program structure</t>
-  </si>
-  <si>
-    <t>A critical time for medical education: The perils of competence-based reform of the curriculum</t>
-  </si>
-  <si>
     <t>A phenomenographic analysis of the implementation of competence-based education in higher education</t>
   </si>
   <si>
-    <t>Can training teachers stimulate career learning conversations? Analysis of vocational training conversations in Dutch secondary vocational education</t>
-  </si>
-  <si>
-    <t>Competence-based Education and Training-About Frequently Asked Questions</t>
-  </si>
-  <si>
-    <t>Competence-based education to develop digital competence</t>
-  </si>
-  <si>
-    <t>How do Italian vocational teachers educate for a sense of initiative and entrepreneurship? Development and initial application of the SIE questionnaire</t>
+    <t>Aspects of competence-based education as footholds to improve the connectivity between learning in school and in the workplace</t>
+  </si>
+  <si>
+    <t>Authentic and self-directed learning in vocational education: Challenges to vocational educators</t>
+  </si>
+  <si>
+    <t>Competence-based training, vocational qualifications and learning targets: Some lessons for the Learning and Skills Council</t>
+  </si>
+  <si>
+    <t>Competence–based vocational training: Ten years on and still down the wrong path?</t>
+  </si>
+  <si>
+    <t>Continuing professional development needs of teachers in schools for competence-based vocational education: A case study from The Netherlands</t>
+  </si>
+  <si>
+    <t>Design principles for hybrid learning configurations at the interface between school and workplace</t>
+  </si>
+  <si>
+    <t>Development of student knowledge in competence-based pre-vocational secondary education</t>
+  </si>
+  <si>
+    <t>Dispositional and maturational development through competency-based training</t>
+  </si>
+  <si>
+    <t>Effectiveness of a competence-based planting support training programme for development agents in Ethiopia</t>
+  </si>
+  <si>
+    <t>Helping students build competences in physical education: theoretical proposals and illustrations</t>
+  </si>
+  <si>
+    <t>How do teachers collaborate in Hungarian VET schools? A quantitative study of forms, perceptions of impact and related individual and organisational factors</t>
   </si>
   <si>
     <t>Implementing Human Resources Management (HRM) within Dutch VET institutions: Examining the fostering and hindering factors</t>
   </si>
   <si>
-    <t>Powerful learning environments in secondary vocational education: towards a shared understanding</t>
+    <t>International curriculum comparison in vocational education and training: A collaborative development of an analysis instrument</t>
+  </si>
+  <si>
+    <t>It is the Shared Aims, Trust and Compassion that Allow People to Prosper: Teacher Educators´ Lifelong Learning in Competence-based Education</t>
+  </si>
+  <si>
+    <t>Perceived effects of competency-based training on the acquisition of professional skills</t>
+  </si>
+  <si>
+    <t>STEAM projects with KIKS format for developing key competences [Proyectos STEAM con formato KIKS para el desarrollo de competencias clave]</t>
   </si>
   <si>
     <t>Student perceptions of assessment and student self-efficacy in competence-based education</t>
   </si>
   <si>
-    <t>Student teachers’ views of competence goals in vocational teacher education</t>
-  </si>
-  <si>
-    <t>Teacher interpersonal behaviour and student motivation in competence-based vocational education: Evidence from Indonesia</t>
-  </si>
-  <si>
-    <t>Team learning and its association with the implementation of competence-based education</t>
-  </si>
-  <si>
-    <t>The concept of competence in the development of vocational education and training in selected EU member states: A critical analysis</t>
-  </si>
-  <si>
-    <t>Theoretical and methodical foundations for the process of forming professional logistics competences of Spa managers at the higher educational institution</t>
+    <t>The construct validity and predictive validity of a self-efficacy measure for student teachers in competence-based education</t>
+  </si>
+  <si>
+    <t>The contribution of assessment experiences to student teachers' self-efficacy in competence-based education</t>
   </si>
   <si>
     <t>Towards competence-oriented higher education: a systematic literature review of the different perspectives on successful exit profiles</t>
@@ -196,34 +178,40 @@
     <t>Using an instrument to analyse competence-based study programmes: Experiences of teachers in dutch vocational education and training</t>
   </si>
   <si>
-    <t>What makes teacher teams in a vocational education context effective?: A qualitative study of managers' view on team working</t>
-  </si>
-  <si>
-    <t>eSchooling: An ICT-based approach to competence-based education</t>
-  </si>
-  <si>
-    <t>2007-2017: A decade of key competences in Spain [2007-2017: Una década de competencias clave en España]</t>
+    <t>Bibliometric characteristics of articles on key competences indexed in ERIC from 1990 to 2013</t>
   </si>
   <si>
     <t>Can competencies assessed by PISA be considered the fundamental school knowledge 15-year-olds should possess?</t>
   </si>
   <si>
-    <t>Conceptual construction of global competence in education</t>
-  </si>
-  <si>
-    <t>From Content- to Competence-Based Curricula–An Educational Account of Curriculum Policy in Kosovo</t>
-  </si>
-  <si>
-    <t>How Key Competencies Progress across School Terms? A Study of “Activities” in Geography Textbooks for Secondary Schools</t>
-  </si>
-  <si>
-    <t>Key competences in Europe: Interpretation, policy formulation and implementation</t>
+    <t>Competences for learning to learn and active citizenship: Different currencies or two sides of the same coin?</t>
+  </si>
+  <si>
+    <t>Education reform and competency-based education</t>
+  </si>
+  <si>
+    <t>Implementing key competences in basic education: Reflections on curriculum design and development in spain</t>
+  </si>
+  <si>
+    <t>Integrating key competences in school physical education programmes</t>
+  </si>
+  <si>
+    <t>Learning for well-being: creativity and inner diversity</t>
   </si>
   <si>
     <t>Planning a competence-based curriculum: The case of four secondary schools in England</t>
   </si>
   <si>
-    <t>Promoting emotional, social and civic competencies: Educational policies in Spain</t>
+    <t>Prediction model for the inclusion of key competences in the primary school curriculum through the teachers’ perceptions in the Region de Murcia [Modelo de predicción para la inclusión de las competencias en el currículo de educación primaria según la percepción del profesorado de la Región de Murcia]</t>
+  </si>
+  <si>
+    <t>Questionnaire on Perceived Competency-based Learning for primary school students (#ICOMpri1) [Cuestionario del Aprendizaje Percibido basado en Competencias para el Alumnado de Educación Primaria (#ICOMPri1)]</t>
+  </si>
+  <si>
+    <t>Researching the competence-based curriculum: Preface to a case study of four urban secondary schools</t>
+  </si>
+  <si>
+    <t>Teaching and learning in a competence-based curriculum: The case of four secondary schools in England</t>
   </si>
   <si>
     <t>Teaching competences necessary for developing key competences of primary education students in Spain: teacher assessments</t>
@@ -232,22 +220,13 @@
     <t>The digital competence framework for primary and secondary schools in Europe</t>
   </si>
   <si>
-    <t>The epistemological fog in realising learning to learn in European curriculum policies</t>
-  </si>
-  <si>
-    <t>The global perspective of education for sustainable development: A European-Latin American study about key competencies for thinking and acting in the world society</t>
-  </si>
-  <si>
     <t>The unfinished business of defining competences for 21st century curricula—a systematic research review</t>
   </si>
   <si>
-    <t>Translating key competences into the school curriculum: Lessons from the Polish experience</t>
-  </si>
-  <si>
-    <t>Transversal competences of university students of engineering [Transverzalne kompetencije studenata strojarstva]</t>
-  </si>
-  <si>
-    <t>What kind of citizens? Constructing ‘Young Europeans’ through loud borrowing in curriculum policy-making in Kosovo</t>
+    <t>Validity and reliability of a questionnaire on primary and secondary school teachers' perception of teaching a competence-based curriculum model</t>
+  </si>
+  <si>
+    <t>Youth, academic failure and second chance training programmes</t>
   </si>
 </sst>
 </file>
@@ -605,7 +584,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C77"/>
+  <dimension ref="A1:C70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -621,7 +600,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -632,7 +611,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1">
-        <v>96</v>
+        <v>123</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -643,7 +622,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -654,7 +633,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1">
-        <v>5</v>
+        <v>51</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -665,7 +644,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1">
-        <v>92</v>
+        <v>50</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -676,7 +655,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1">
-        <v>143</v>
+        <v>1</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -687,7 +666,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1">
-        <v>75</v>
+        <v>186</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -698,7 +677,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -709,7 +688,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1">
-        <v>3</v>
+        <v>154</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -720,7 +699,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1">
-        <v>72</v>
+        <v>31</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -731,7 +710,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -742,7 +721,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1">
-        <v>56</v>
+        <v>99</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -753,7 +732,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -764,7 +743,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1">
-        <v>103</v>
+        <v>76</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -775,7 +754,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -786,7 +765,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -797,7 +776,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -808,7 +787,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1">
-        <v>88</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -819,7 +798,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -830,7 +809,7 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1">
-        <v>76</v>
+        <v>6</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -841,7 +820,7 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1">
-        <v>19</v>
+        <v>82</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -852,7 +831,7 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1">
-        <v>102</v>
+        <v>151</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -863,7 +842,7 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1">
-        <v>57</v>
+        <v>86</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -874,7 +853,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -885,7 +864,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1">
-        <v>168</v>
+        <v>84</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -896,7 +875,7 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="1">
-        <v>24</v>
+        <v>121</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -907,7 +886,7 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="1">
-        <v>23</v>
+        <v>140</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -918,7 +897,7 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="1">
-        <v>115</v>
+        <v>162</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -929,7 +908,7 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="1">
-        <v>158</v>
+        <v>187</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -940,7 +919,7 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="1">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -951,10 +930,10 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="1">
-        <v>151</v>
+        <v>105</v>
       </c>
       <c r="B32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C32" t="s">
         <v>32</v>
@@ -962,10 +941,10 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="1">
-        <v>77</v>
+        <v>161</v>
       </c>
       <c r="B33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C33" t="s">
         <v>33</v>
@@ -973,10 +952,10 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="1">
-        <v>0</v>
+        <v>153</v>
       </c>
       <c r="B34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C34" t="s">
         <v>34</v>
@@ -984,10 +963,10 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="1">
-        <v>49</v>
+        <v>179</v>
       </c>
       <c r="B35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C35" t="s">
         <v>35</v>
@@ -995,10 +974,10 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="1">
-        <v>8</v>
+        <v>185</v>
       </c>
       <c r="B36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C36" t="s">
         <v>36</v>
@@ -1006,10 +985,10 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="1">
-        <v>34</v>
+        <v>159</v>
       </c>
       <c r="B37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C37" t="s">
         <v>37</v>
@@ -1017,10 +996,10 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="1">
-        <v>162</v>
+        <v>95</v>
       </c>
       <c r="B38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C38" t="s">
         <v>38</v>
@@ -1028,10 +1007,10 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="1">
-        <v>187</v>
+        <v>146</v>
       </c>
       <c r="B39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C39" t="s">
         <v>39</v>
@@ -1039,10 +1018,10 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="1">
-        <v>62</v>
+        <v>178</v>
       </c>
       <c r="B40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C40" t="s">
         <v>40</v>
@@ -1050,10 +1029,10 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="1">
-        <v>173</v>
+        <v>14</v>
       </c>
       <c r="B41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C41" t="s">
         <v>41</v>
@@ -1061,10 +1040,10 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="1">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="B42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C42" t="s">
         <v>42</v>
@@ -1072,10 +1051,10 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="1">
-        <v>107</v>
+        <v>17</v>
       </c>
       <c r="B43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C43" t="s">
         <v>43</v>
@@ -1083,7 +1062,7 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="1">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="B44">
         <v>2</v>
@@ -1094,7 +1073,7 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="1">
-        <v>105</v>
+        <v>36</v>
       </c>
       <c r="B45">
         <v>2</v>
@@ -1105,7 +1084,7 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="1">
-        <v>138</v>
+        <v>7</v>
       </c>
       <c r="B46">
         <v>2</v>
@@ -1116,7 +1095,7 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="1">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="B47">
         <v>2</v>
@@ -1127,7 +1106,7 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="1">
-        <v>113</v>
+        <v>40</v>
       </c>
       <c r="B48">
         <v>2</v>
@@ -1138,7 +1117,7 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="1">
-        <v>80</v>
+        <v>119</v>
       </c>
       <c r="B49">
         <v>2</v>
@@ -1149,7 +1128,7 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="1">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B50">
         <v>2</v>
@@ -1160,7 +1139,7 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="1">
-        <v>55</v>
+        <v>110</v>
       </c>
       <c r="B51">
         <v>2</v>
@@ -1171,7 +1150,7 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="1">
-        <v>119</v>
+        <v>20</v>
       </c>
       <c r="B52">
         <v>2</v>
@@ -1182,7 +1161,7 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="1">
-        <v>16</v>
+        <v>156</v>
       </c>
       <c r="B53">
         <v>2</v>
@@ -1193,10 +1172,10 @@
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="1">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="B54">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C54" t="s">
         <v>54</v>
@@ -1204,10 +1183,10 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="1">
-        <v>98</v>
+        <v>170</v>
       </c>
       <c r="B55">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C55" t="s">
         <v>55</v>
@@ -1215,10 +1194,10 @@
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="1">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="B56">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C56" t="s">
         <v>56</v>
@@ -1226,10 +1205,10 @@
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="1">
-        <v>100</v>
+        <v>172</v>
       </c>
       <c r="B57">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C57" t="s">
         <v>57</v>
@@ -1237,10 +1216,10 @@
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="1">
-        <v>20</v>
+        <v>148</v>
       </c>
       <c r="B58">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C58" t="s">
         <v>58</v>
@@ -1248,10 +1227,10 @@
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="1">
-        <v>156</v>
+        <v>94</v>
       </c>
       <c r="B59">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C59" t="s">
         <v>59</v>
@@ -1259,10 +1238,10 @@
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="1">
-        <v>135</v>
+        <v>108</v>
       </c>
       <c r="B60">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C60" t="s">
         <v>60</v>
@@ -1270,10 +1249,10 @@
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="1">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="B61">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C61" t="s">
         <v>61</v>
@@ -1281,7 +1260,7 @@
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="1">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="B62">
         <v>3</v>
@@ -1292,7 +1271,7 @@
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="1">
-        <v>170</v>
+        <v>93</v>
       </c>
       <c r="B63">
         <v>3</v>
@@ -1303,7 +1282,7 @@
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="1">
-        <v>2</v>
+        <v>132</v>
       </c>
       <c r="B64">
         <v>3</v>
@@ -1314,7 +1293,7 @@
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="1">
-        <v>35</v>
+        <v>131</v>
       </c>
       <c r="B65">
         <v>3</v>
@@ -1325,7 +1304,7 @@
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="1">
-        <v>15</v>
+        <v>101</v>
       </c>
       <c r="B66">
         <v>3</v>
@@ -1336,7 +1315,7 @@
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="1">
-        <v>150</v>
+        <v>27</v>
       </c>
       <c r="B67">
         <v>3</v>
@@ -1347,7 +1326,7 @@
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="1">
-        <v>133</v>
+        <v>46</v>
       </c>
       <c r="B68">
         <v>3</v>
@@ -1358,7 +1337,7 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="1">
-        <v>122</v>
+        <v>85</v>
       </c>
       <c r="B69">
         <v>3</v>
@@ -1369,90 +1348,13 @@
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="1">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="B70">
         <v>3</v>
       </c>
       <c r="C70" t="s">
         <v>70</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
-      <c r="A71" s="1">
-        <v>27</v>
-      </c>
-      <c r="B71">
-        <v>3</v>
-      </c>
-      <c r="C71" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
-      <c r="A72" s="1">
-        <v>136</v>
-      </c>
-      <c r="B72">
-        <v>3</v>
-      </c>
-      <c r="C72" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
-      <c r="A73" s="1">
-        <v>134</v>
-      </c>
-      <c r="B73">
-        <v>3</v>
-      </c>
-      <c r="C73" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
-      <c r="A74" s="1">
-        <v>46</v>
-      </c>
-      <c r="B74">
-        <v>3</v>
-      </c>
-      <c r="C74" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
-      <c r="A75" s="1">
-        <v>147</v>
-      </c>
-      <c r="B75">
-        <v>3</v>
-      </c>
-      <c r="C75" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
-      <c r="A76" s="1">
-        <v>106</v>
-      </c>
-      <c r="B76">
-        <v>3</v>
-      </c>
-      <c r="C76" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
-      <c r="A77" s="1">
-        <v>42</v>
-      </c>
-      <c r="B77">
-        <v>3</v>
-      </c>
-      <c r="C77" t="s">
-        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/random_sample.xlsx
+++ b/random_sample.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
   <si>
     <t>cluster</t>
   </si>
@@ -22,115 +22,166 @@
     <t>Title</t>
   </si>
   <si>
+    <t>A Bibliometric Analysis of Systems Thinking Research in Science Education 1991–2022</t>
+  </si>
+  <si>
+    <t>A Needs Analysis for Embedding Sustainable Finance Competences into Vocational Business Education in the Baltic Region</t>
+  </si>
+  <si>
+    <t>A competency framework to assess and activate education for sustainable development: Addressing the UN sustainable development goals 4.7 challenge</t>
+  </si>
+  <si>
     <t>A systematic review of the use of Agile methodologies in education to foster sustainability competencies</t>
   </si>
   <si>
-    <t>Assessing sustainability education in a transdisciplinary undergraduate course focused on real-world problem solving: A case for disciplinary grounding</t>
-  </si>
-  <si>
-    <t>Audit workplace simulations as a methodology to increase undergraduates’ awareness of competences</t>
-  </si>
-  <si>
-    <t>Building key competencies into an environmental education curriculum using a modified Delphi approach in South Korea</t>
-  </si>
-  <si>
-    <t>Competence literate but context lacking? Investigating the potential of study abroad programs to promote sustainability competence acquisition in students</t>
+    <t>Analysis of key competencies and curriculum expertise of Korean dance programs to assist in their long-term sustainability</t>
+  </si>
+  <si>
+    <t>Anticipating Future Needs in Key Competences for Sustainability in Two Distance Learning Universities of Spain and Portugal</t>
+  </si>
+  <si>
+    <t>Articulation Between Environmental Education and Scientific Education: A Perspective From the Sustainability Competencies Developed in Initial Teacher Training [Articulación entre educación ambiental y educación científica: una mirada desde las competencias en sostenibilidad desarrolladas en la formación inicial docente]</t>
+  </si>
+  <si>
+    <t>Coaching to prepare students for their school-to-work transition: conceptualizing core coaching competences</t>
+  </si>
+  <si>
+    <t>Comparing faculty perceptions of sustainability teaching at two US universities</t>
   </si>
   <si>
     <t>Competence-based approaches in organizational and individual context</t>
   </si>
   <si>
-    <t>Competence-based education and training: Progress or villainy?</t>
-  </si>
-  <si>
-    <t>Competencies for Advancing Transformations Towards Sustainability</t>
-  </si>
-  <si>
-    <t>Computer-based assessment in safety-critical industries: The case of shipping</t>
-  </si>
-  <si>
-    <t>Creativity for sustainability: How do polish teachers develop students’ creativity competence? analysis of research results</t>
+    <t>Competencies of Sustainability Professionals: An Empirical Study on Key Competencies for Sustainability</t>
+  </si>
+  <si>
+    <t>Defining sustainability core competencies in business and management studies based on multinational stakeholders' Perceptions</t>
+  </si>
+  <si>
+    <t>Designing a distance learning sustainability bachelor’s degree</t>
+  </si>
+  <si>
+    <t>Developing an Educational and Cognitive Competence Model for Future Teacher’s for Independent Work – The Case of Indonesia</t>
   </si>
   <si>
     <t>Developing key competencies in sustainability through project-based learning in graduate sustainability programs</t>
   </si>
   <si>
+    <t>Devising a competence-based training program for educators of sustainable development: Lessons learned</t>
+  </si>
+  <si>
+    <t>Embracing conflicts for interpersonal competence development in project-based sustainability courses</t>
+  </si>
+  <si>
     <t>Facilitating transformation and competence development in sustainable agriculture university education: An experiential and action oriented approach</t>
   </si>
   <si>
-    <t>Generic versus specific competencies of entry-level public health graduates: Employers' perceptions in Poland, the UK, and the Netherlands</t>
+    <t>Formation of sustainable development competencies in primary school children</t>
+  </si>
+  <si>
+    <t>Hope and anticipation in education for a sustainable future</t>
+  </si>
+  <si>
+    <t>How mindfulness training cultivates introspection and competence development for sustainable consumption</t>
   </si>
   <si>
     <t>How secondary-school students deal with issues of sustainable development in class *</t>
   </si>
   <si>
-    <t>Key competences, education for sustainable development and strategies for the development of 21st century skills. A systematic literature review</t>
-  </si>
-  <si>
-    <t>Key competencies for design in a circular economy: Exploring gaps in design knowledge and skills for a circular economy</t>
-  </si>
-  <si>
-    <t>Learning for a sustainable economy: Teaching of green competencies in the university</t>
-  </si>
-  <si>
-    <t>Practice-based program evaluation in higher education for sustainability: A student participatory approach</t>
-  </si>
-  <si>
-    <t>Real-world learning opportunities in sustainability: from classroom into the real world</t>
+    <t>Identification of levels of sustainable consciousness of teachers in training through an e-portfolio</t>
+  </si>
+  <si>
+    <t>Inner transitions in higher education in Sweden: incorporating intra-personal skills in education for sustainable development</t>
+  </si>
+  <si>
+    <t>Integrating Menominee model for sustainable forestry with Systems Thinking competency through 3D virtual tours</t>
+  </si>
+  <si>
+    <t>Integrating sustainability in higher planning education through international cooperation: Assessment of a pedagogical model and learning outcomes from the students’ perspective</t>
+  </si>
+  <si>
+    <t>Key competencies for education in a European context: Narratives of accountability or care</t>
+  </si>
+  <si>
+    <t>Key competencies for sustainability in university of iceland curriculum</t>
+  </si>
+  <si>
+    <t>Negotiating the ethical-political dimensions of research methods: a key competency in mixed methods, inter- and transdisciplinary, and co-production research</t>
   </si>
   <si>
     <t>Recognising and measuring competency in natural hazard preparation: A preparedness competency index</t>
   </si>
   <si>
+    <t>Reflective practice in times of COVID‐19: A tool to improve education for sustainable development in pre‐service teacher training</t>
+  </si>
+  <si>
     <t>Remodelling urban planning education for sustainable development: the case of Serbia</t>
   </si>
   <si>
-    <t>Self-evaluation of assessment programs: A cross-case analysis</t>
-  </si>
-  <si>
     <t>Social and solidarity economy, sustainable development goals, and community development: The mission of adult education &amp; training</t>
   </si>
   <si>
+    <t>Students' decision-making in education for sustainability-related extracurricular activities-a systematic review of empirical studies</t>
+  </si>
+  <si>
+    <t>Sustainability science in education: analysis of master’s programmes’ curricula</t>
+  </si>
+  <si>
+    <t>Sustainability teaching tools in the digital age</t>
+  </si>
+  <si>
     <t>Sustainable Development in Education from Students’ Perspective—Implementation of Sustainable Development in Curricula</t>
   </si>
   <si>
-    <t>Systems thinking within the scope of education for sustainable development (ESD)–a heuristic competence model as a basis for (science) teacher education</t>
+    <t>Teaching foresight and futures literacy and its integration into university curriculum</t>
   </si>
   <si>
     <t>The change towards a teaching methodology based on competences: A case study in a Spanish university</t>
   </si>
   <si>
-    <t>The explication of quality standards in self-evaluation</t>
-  </si>
-  <si>
-    <t>The new competence concept in higher education: Error or enrichment?</t>
-  </si>
-  <si>
-    <t>Tilting at Windmills: The problems of challenging the National Council for Vocational Qualifications</t>
-  </si>
-  <si>
-    <t>Validation of the chefs’ key competencies questionnaire: A culinary student perspective</t>
+    <t>Transforming learning for sufficiency economy philosophy and sustainable development through the triangle of living learning lab</t>
+  </si>
+  <si>
+    <t>Using conjoint analysis to estimate employers preferences for key competencies of master level Dutch graduates entering the public health field</t>
+  </si>
+  <si>
+    <t>Variation in sustainability competency development according to age, gender, and disciplinary affiliation: Implications for teaching practice and overall program structure</t>
+  </si>
+  <si>
+    <t>What Motivates Students to Be Sustainability Change Agents in the Face of Adversity?</t>
   </si>
   <si>
     <t>A phenomenographic analysis of the implementation of competence-based education in higher education</t>
   </si>
   <si>
-    <t>Aspects of competence-based education as footholds to improve the connectivity between learning in school and in the workplace</t>
+    <t>Ability- or competence-based education: Bridging the gap between knowledge acquisition and ability to apply</t>
   </si>
   <si>
     <t>Authentic and self-directed learning in vocational education: Challenges to vocational educators</t>
   </si>
   <si>
-    <t>Competence-based training, vocational qualifications and learning targets: Some lessons for the Learning and Skills Council</t>
-  </si>
-  <si>
-    <t>Competence–based vocational training: Ten years on and still down the wrong path?</t>
+    <t>Can training teachers stimulate career learning conversations? Analysis of vocational training conversations in Dutch secondary vocational education</t>
+  </si>
+  <si>
+    <t>Competence and knowledge development in competence-based vocational education in Indonesia</t>
+  </si>
+  <si>
+    <t>Competence in transition</t>
+  </si>
+  <si>
+    <t>Competence-based Education and Training</t>
+  </si>
+  <si>
+    <t>Competence-based education: reflections on the context of teaching agriculture in Ghana’s pre-tertiary schools</t>
+  </si>
+  <si>
+    <t>Competence-based vet in the netherlands: Background and pitfalls</t>
   </si>
   <si>
     <t>Continuing professional development needs of teachers in schools for competence-based vocational education: A case study from The Netherlands</t>
   </si>
   <si>
-    <t>Design principles for hybrid learning configurations at the interface between school and workplace</t>
+    <t>Design-based education, sustainable teaching, and learning</t>
   </si>
   <si>
     <t>Development of student knowledge in competence-based pre-vocational secondary education</t>
@@ -139,13 +190,16 @@
     <t>Dispositional and maturational development through competency-based training</t>
   </si>
   <si>
+    <t>Does implementation of competence-based education mediate the impact of team learning on student satisfaction?</t>
+  </si>
+  <si>
     <t>Effectiveness of a competence-based planting support training programme for development agents in Ethiopia</t>
   </si>
   <si>
-    <t>Helping students build competences in physical education: theoretical proposals and illustrations</t>
-  </si>
-  <si>
-    <t>How do teachers collaborate in Hungarian VET schools? A quantitative study of forms, perceptions of impact and related individual and organisational factors</t>
+    <t>Exploring the Validity and Robustness of a Competency Self-Report Instrument for Vocational and Higher Competence-Based Education</t>
+  </si>
+  <si>
+    <t>How do Italian vocational teachers educate for a sense of initiative and entrepreneurship? Development and initial application of the SIE questionnaire</t>
   </si>
   <si>
     <t>Implementing Human Resources Management (HRM) within Dutch VET institutions: Examining the fostering and hindering factors</t>
@@ -154,73 +208,91 @@
     <t>International curriculum comparison in vocational education and training: A collaborative development of an analysis instrument</t>
   </si>
   <si>
-    <t>It is the Shared Aims, Trust and Compassion that Allow People to Prosper: Teacher Educators´ Lifelong Learning in Competence-based Education</t>
+    <t>Learning for adaptation and 21st-century skills: Evidence of pupils’ flexibility in Rwandan primary schools</t>
   </si>
   <si>
     <t>Perceived effects of competency-based training on the acquisition of professional skills</t>
   </si>
   <si>
-    <t>STEAM projects with KIKS format for developing key competences [Proyectos STEAM con formato KIKS para el desarrollo de competencias clave]</t>
-  </si>
-  <si>
-    <t>Student perceptions of assessment and student self-efficacy in competence-based education</t>
-  </si>
-  <si>
-    <t>The construct validity and predictive validity of a self-efficacy measure for student teachers in competence-based education</t>
+    <t>Powerful learning environments in secondary vocational education: towards a shared understanding</t>
+  </si>
+  <si>
+    <t>Science Competence-based Curriculum Implementation in Rwanda: A Multiple Case Study of the Relationship between a School’s Profile of Implementation and its Capacity to Innovate</t>
+  </si>
+  <si>
+    <t>Student teachers’ views of competence goals in vocational teacher education</t>
+  </si>
+  <si>
+    <t>Teachers and students’ perception of competence-based education in the agricultural higher education system (Case of a student cooperative in Iran)</t>
+  </si>
+  <si>
+    <t>Teachers’ individual action theories about competence-based education: The value of the cognitive apprenticeship model</t>
+  </si>
+  <si>
+    <t>Team learning and its association with the implementation of competence-based education</t>
   </si>
   <si>
     <t>The contribution of assessment experiences to student teachers' self-efficacy in competence-based education</t>
   </si>
   <si>
+    <t>The role of schools' perceived human resource policies in teachers' professional development activities: A comparative study of innovations toward competence-based education</t>
+  </si>
+  <si>
+    <t>Towards competence-based practices in vocational education – What will the process require from teacher education and teacher identities? [Proti kompetenčnemu sistemu poklicnega izobraževanja – Kaj bo proces zahteval od izobraževanja učiteljev in učiteljevih vlog?]</t>
+  </si>
+  <si>
     <t>Towards competence-oriented higher education: a systematic literature review of the different perspectives on successful exit profiles</t>
   </si>
   <si>
-    <t>Using an instrument to analyse competence-based study programmes: Experiences of teachers in dutch vocational education and training</t>
-  </si>
-  <si>
-    <t>Bibliometric characteristics of articles on key competences indexed in ERIC from 1990 to 2013</t>
-  </si>
-  <si>
-    <t>Can competencies assessed by PISA be considered the fundamental school knowledge 15-year-olds should possess?</t>
+    <t>What are vocational training conversations about? Analysis of vocational training conversations in dutch vocational education from a career learning perspective</t>
+  </si>
+  <si>
+    <t>Assessing key competences across the curriculum - and Europe</t>
+  </si>
+  <si>
+    <t>BSW students' perceptions of key competencies, values, and practitioner skills Implications for social work education</t>
   </si>
   <si>
     <t>Competences for learning to learn and active citizenship: Different currencies or two sides of the same coin?</t>
   </si>
   <si>
-    <t>Education reform and competency-based education</t>
-  </si>
-  <si>
-    <t>Implementing key competences in basic education: Reflections on curriculum design and development in spain</t>
+    <t>Competing logics in the key competencies: A sociological reading of post-compulsory education and training in australia</t>
+  </si>
+  <si>
+    <t>Conceptual construction of global competence in education</t>
+  </si>
+  <si>
+    <t>Digital literacies or digital competence: conceptualizations in nordic curricula</t>
+  </si>
+  <si>
+    <t>Effects of an integrated STEAM approach on the development of competence in primary education students (Efectos de una propuesta STEAM integrada en el desarrollo competencial del alumnado de Educación Primaria)</t>
   </si>
   <si>
     <t>Integrating key competences in school physical education programmes</t>
   </si>
   <si>
-    <t>Learning for well-being: creativity and inner diversity</t>
-  </si>
-  <si>
-    <t>Planning a competence-based curriculum: The case of four secondary schools in England</t>
+    <t>Key competences in Europe: Interpretation, policy formulation and implementation</t>
+  </si>
+  <si>
+    <t>Key competencies: developing an instrument for assessing trainee teachers’ understanding and views</t>
+  </si>
+  <si>
+    <t>Perceptions of learning effectiveness in M-learning: scale development and student awareness</t>
   </si>
   <si>
     <t>Prediction model for the inclusion of key competences in the primary school curriculum through the teachers’ perceptions in the Region de Murcia [Modelo de predicción para la inclusión de las competencias en el currículo de educación primaria según la percepción del profesorado de la Región de Murcia]</t>
   </si>
   <si>
-    <t>Questionnaire on Perceived Competency-based Learning for primary school students (#ICOMpri1) [Cuestionario del Aprendizaje Percibido basado en Competencias para el Alumnado de Educación Primaria (#ICOMPri1)]</t>
-  </si>
-  <si>
     <t>Researching the competence-based curriculum: Preface to a case study of four urban secondary schools</t>
   </si>
   <si>
-    <t>Teaching and learning in a competence-based curriculum: The case of four secondary schools in England</t>
-  </si>
-  <si>
-    <t>Teaching competences necessary for developing key competences of primary education students in Spain: teacher assessments</t>
-  </si>
-  <si>
-    <t>The digital competence framework for primary and secondary schools in Europe</t>
-  </si>
-  <si>
-    <t>The unfinished business of defining competences for 21st century curricula—a systematic research review</t>
+    <t>Role of transnational and national education policies in realisation of critical thinking: the cases of Sweden and Kosovo</t>
+  </si>
+  <si>
+    <t>The epistemological fog in realising learning to learn in European curriculum policies</t>
+  </si>
+  <si>
+    <t>The neoliberal structures of English in Japanese higher education: applying Bernstein’s pedagogic device</t>
   </si>
   <si>
     <t>Validity and reliability of a questionnaire on primary and secondary school teachers' perception of teaching a competence-based curriculum model</t>
@@ -584,7 +656,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C70"/>
+  <dimension ref="A1:C94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -600,7 +672,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1">
-        <v>69</v>
+        <v>5</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -611,7 +683,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1">
-        <v>123</v>
+        <v>27</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -622,7 +694,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1">
-        <v>81</v>
+        <v>106</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -633,7 +705,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1">
-        <v>51</v>
+        <v>107</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -644,7 +716,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -655,7 +727,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -666,7 +738,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1">
-        <v>186</v>
+        <v>41</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -677,7 +749,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -688,7 +760,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1">
-        <v>154</v>
+        <v>132</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -699,7 +771,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -710,7 +782,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -721,7 +793,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -732,7 +804,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1">
-        <v>169</v>
+        <v>152</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -743,7 +815,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1">
-        <v>76</v>
+        <v>1</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -754,7 +826,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -765,7 +837,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1">
-        <v>30</v>
+        <v>111</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -776,7 +848,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1">
-        <v>118</v>
+        <v>93</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -787,7 +859,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1">
-        <v>22</v>
+        <v>139</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -798,7 +870,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1">
-        <v>158</v>
+        <v>55</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -809,7 +881,7 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1">
-        <v>6</v>
+        <v>127</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -820,7 +892,7 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -831,7 +903,7 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1">
-        <v>151</v>
+        <v>116</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -842,7 +914,7 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1">
-        <v>86</v>
+        <v>118</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -853,7 +925,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -864,7 +936,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1">
-        <v>84</v>
+        <v>6</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -875,7 +947,7 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="1">
-        <v>121</v>
+        <v>94</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -886,7 +958,7 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="1">
-        <v>140</v>
+        <v>210</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -897,7 +969,7 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="1">
-        <v>162</v>
+        <v>57</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -908,7 +980,7 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="1">
-        <v>187</v>
+        <v>21</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -919,7 +991,7 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="1">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -930,10 +1002,10 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="1">
-        <v>105</v>
+        <v>58</v>
       </c>
       <c r="B32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C32" t="s">
         <v>32</v>
@@ -941,10 +1013,10 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="1">
-        <v>161</v>
+        <v>122</v>
       </c>
       <c r="B33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C33" t="s">
         <v>33</v>
@@ -952,10 +1024,10 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="1">
-        <v>153</v>
+        <v>126</v>
       </c>
       <c r="B34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C34" t="s">
         <v>34</v>
@@ -963,10 +1035,10 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="1">
-        <v>179</v>
+        <v>117</v>
       </c>
       <c r="B35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C35" t="s">
         <v>35</v>
@@ -974,10 +1046,10 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="1">
-        <v>185</v>
+        <v>90</v>
       </c>
       <c r="B36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C36" t="s">
         <v>36</v>
@@ -985,10 +1057,10 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="1">
-        <v>159</v>
+        <v>91</v>
       </c>
       <c r="B37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C37" t="s">
         <v>37</v>
@@ -996,10 +1068,10 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="1">
-        <v>95</v>
+        <v>37</v>
       </c>
       <c r="B38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C38" t="s">
         <v>38</v>
@@ -1007,10 +1079,10 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="1">
-        <v>146</v>
+        <v>66</v>
       </c>
       <c r="B39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C39" t="s">
         <v>39</v>
@@ -1018,10 +1090,10 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="1">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="B40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C40" t="s">
         <v>40</v>
@@ -1029,10 +1101,10 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="1">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C41" t="s">
         <v>41</v>
@@ -1040,10 +1112,10 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="1">
-        <v>67</v>
+        <v>215</v>
       </c>
       <c r="B42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C42" t="s">
         <v>42</v>
@@ -1051,10 +1123,10 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="1">
-        <v>17</v>
+        <v>147</v>
       </c>
       <c r="B43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C43" t="s">
         <v>43</v>
@@ -1062,10 +1134,10 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="1">
-        <v>127</v>
+        <v>53</v>
       </c>
       <c r="B44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C44" t="s">
         <v>44</v>
@@ -1073,7 +1145,7 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="1">
-        <v>36</v>
+        <v>145</v>
       </c>
       <c r="B45">
         <v>2</v>
@@ -1084,7 +1156,7 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="1">
-        <v>7</v>
+        <v>230</v>
       </c>
       <c r="B46">
         <v>2</v>
@@ -1095,7 +1167,7 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="1">
-        <v>120</v>
+        <v>195</v>
       </c>
       <c r="B47">
         <v>2</v>
@@ -1106,7 +1178,7 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="1">
-        <v>40</v>
+        <v>180</v>
       </c>
       <c r="B48">
         <v>2</v>
@@ -1117,7 +1189,7 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="1">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="B49">
         <v>2</v>
@@ -1128,7 +1200,7 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="1">
-        <v>124</v>
+        <v>218</v>
       </c>
       <c r="B50">
         <v>2</v>
@@ -1139,7 +1211,7 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="1">
-        <v>110</v>
+        <v>183</v>
       </c>
       <c r="B51">
         <v>2</v>
@@ -1150,7 +1222,7 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="1">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B52">
         <v>2</v>
@@ -1161,7 +1233,7 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="1">
-        <v>156</v>
+        <v>219</v>
       </c>
       <c r="B53">
         <v>2</v>
@@ -1172,10 +1244,10 @@
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="1">
-        <v>91</v>
+        <v>201</v>
       </c>
       <c r="B54">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C54" t="s">
         <v>54</v>
@@ -1183,10 +1255,10 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="1">
-        <v>170</v>
+        <v>112</v>
       </c>
       <c r="B55">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C55" t="s">
         <v>55</v>
@@ -1194,10 +1266,10 @@
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="1">
-        <v>160</v>
+        <v>188</v>
       </c>
       <c r="B56">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C56" t="s">
         <v>56</v>
@@ -1205,10 +1277,10 @@
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="1">
-        <v>172</v>
+        <v>220</v>
       </c>
       <c r="B57">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C57" t="s">
         <v>57</v>
@@ -1216,10 +1288,10 @@
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="1">
-        <v>148</v>
+        <v>96</v>
       </c>
       <c r="B58">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C58" t="s">
         <v>58</v>
@@ -1227,10 +1299,10 @@
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="1">
-        <v>94</v>
+        <v>29</v>
       </c>
       <c r="B59">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C59" t="s">
         <v>59</v>
@@ -1238,10 +1310,10 @@
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="1">
-        <v>108</v>
+        <v>159</v>
       </c>
       <c r="B60">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C60" t="s">
         <v>60</v>
@@ -1249,10 +1321,10 @@
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="1">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="B61">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C61" t="s">
         <v>61</v>
@@ -1260,10 +1332,10 @@
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="1">
-        <v>74</v>
+        <v>169</v>
       </c>
       <c r="B62">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C62" t="s">
         <v>62</v>
@@ -1271,10 +1343,10 @@
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="1">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C63" t="s">
         <v>63</v>
@@ -1282,10 +1354,10 @@
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="1">
-        <v>132</v>
+        <v>28</v>
       </c>
       <c r="B64">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C64" t="s">
         <v>64</v>
@@ -1293,10 +1365,10 @@
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="1">
-        <v>131</v>
+        <v>162</v>
       </c>
       <c r="B65">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C65" t="s">
         <v>65</v>
@@ -1304,10 +1376,10 @@
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="1">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="B66">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C66" t="s">
         <v>66</v>
@@ -1315,10 +1387,10 @@
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="1">
-        <v>27</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C67" t="s">
         <v>67</v>
@@ -1326,10 +1398,10 @@
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="1">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B68">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C68" t="s">
         <v>68</v>
@@ -1337,10 +1409,10 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="1">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="B69">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C69" t="s">
         <v>69</v>
@@ -1348,13 +1420,277 @@
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="1">
-        <v>126</v>
+        <v>208</v>
       </c>
       <c r="B70">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C70" t="s">
         <v>70</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" s="1">
+        <v>138</v>
+      </c>
+      <c r="B71">
+        <v>2</v>
+      </c>
+      <c r="C71" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" s="1">
+        <v>150</v>
+      </c>
+      <c r="B72">
+        <v>2</v>
+      </c>
+      <c r="C72" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" s="1">
+        <v>197</v>
+      </c>
+      <c r="B73">
+        <v>2</v>
+      </c>
+      <c r="C73" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" s="1">
+        <v>149</v>
+      </c>
+      <c r="B74">
+        <v>2</v>
+      </c>
+      <c r="C74" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" s="1">
+        <v>52</v>
+      </c>
+      <c r="B75">
+        <v>2</v>
+      </c>
+      <c r="C75" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" s="1">
+        <v>207</v>
+      </c>
+      <c r="B76">
+        <v>2</v>
+      </c>
+      <c r="C76" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" s="1">
+        <v>191</v>
+      </c>
+      <c r="B77">
+        <v>3</v>
+      </c>
+      <c r="C77" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" s="1">
+        <v>222</v>
+      </c>
+      <c r="B78">
+        <v>3</v>
+      </c>
+      <c r="C78" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" s="1">
+        <v>202</v>
+      </c>
+      <c r="B79">
+        <v>3</v>
+      </c>
+      <c r="C79" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" s="1">
+        <v>224</v>
+      </c>
+      <c r="B80">
+        <v>3</v>
+      </c>
+      <c r="C80" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" s="1">
+        <v>31</v>
+      </c>
+      <c r="B81">
+        <v>3</v>
+      </c>
+      <c r="C81" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" s="1">
+        <v>114</v>
+      </c>
+      <c r="B82">
+        <v>3</v>
+      </c>
+      <c r="C82" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" s="1">
+        <v>71</v>
+      </c>
+      <c r="B83">
+        <v>3</v>
+      </c>
+      <c r="C83" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" s="1">
+        <v>134</v>
+      </c>
+      <c r="B84">
+        <v>3</v>
+      </c>
+      <c r="C84" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" s="1">
+        <v>192</v>
+      </c>
+      <c r="B85">
+        <v>3</v>
+      </c>
+      <c r="C85" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" s="1">
+        <v>70</v>
+      </c>
+      <c r="B86">
+        <v>3</v>
+      </c>
+      <c r="C86" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" s="1">
+        <v>129</v>
+      </c>
+      <c r="B87">
+        <v>3</v>
+      </c>
+      <c r="C87" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" s="1">
+        <v>113</v>
+      </c>
+      <c r="B88">
+        <v>3</v>
+      </c>
+      <c r="C88" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" s="1">
+        <v>174</v>
+      </c>
+      <c r="B89">
+        <v>3</v>
+      </c>
+      <c r="C89" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" s="1">
+        <v>102</v>
+      </c>
+      <c r="B90">
+        <v>3</v>
+      </c>
+      <c r="C90" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" s="1">
+        <v>178</v>
+      </c>
+      <c r="B91">
+        <v>3</v>
+      </c>
+      <c r="C91" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" s="1">
+        <v>17</v>
+      </c>
+      <c r="B92">
+        <v>3</v>
+      </c>
+      <c r="C92" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" s="1">
+        <v>125</v>
+      </c>
+      <c r="B93">
+        <v>3</v>
+      </c>
+      <c r="C93" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" s="1">
+        <v>168</v>
+      </c>
+      <c r="B94">
+        <v>3</v>
+      </c>
+      <c r="C94" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
